--- a/doc/11.07.2013 Meeting/Results.xlsx
+++ b/doc/11.07.2013 Meeting/Results.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="ROC" sheetId="1" r:id="rId1"/>
+    <sheet name="Rank distribution" sheetId="2" r:id="rId2"/>
+    <sheet name="2way" sheetId="3" r:id="rId3"/>
+    <sheet name="combined_H1" sheetId="4" r:id="rId4"/>
+    <sheet name="Method" sheetId="5" r:id="rId5"/>
+    <sheet name="Topline" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="53">
   <si>
     <t xml:space="preserve">method </t>
   </si>
@@ -68,6 +71,114 @@
   <si>
     <t xml:space="preserve">3way_enrich_voting_rawslu5_allmetrics </t>
   </si>
+  <si>
+    <t xml:space="preserve">data </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dstc2_train </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dstc2_dev </t>
+  </si>
+  <si>
+    <t xml:space="preserve">total </t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>F-Measure</t>
+  </si>
+  <si>
+    <t>dstc2_train</t>
+  </si>
+  <si>
+    <t>dstc2_dev</t>
+  </si>
+  <si>
+    <t>res_act</t>
+  </si>
+  <si>
+    <t>res_actngram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joint_Goals_accuracy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requested_accuracy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Method_accuracy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joint_Goals_l2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requested_l2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Method_l2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">baseline </t>
+  </si>
+  <si>
+    <t xml:space="preserve">baseline_focus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HWUbaseline </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2waymodel_act </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2waymodel_actngram </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2waymodel_actngram_topline </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2waymodel_actngram_topline_ignore-1 </t>
+  </si>
+  <si>
+    <t>fixed "this"</t>
+  </si>
+  <si>
+    <t>2waymodel_actngram_topline_remove_this</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2waymodel_topline </t>
+  </si>
+  <si>
+    <t>TopK</t>
+  </si>
+  <si>
+    <t>HWUbaseline_dev</t>
+  </si>
+  <si>
+    <t>baseline_focus_dev</t>
+  </si>
+  <si>
+    <t>baseline_dev</t>
+  </si>
+  <si>
+    <t>2waymodel_topline _dev</t>
+  </si>
+  <si>
+    <t>2waymodel_topline _train</t>
+  </si>
+  <si>
+    <t xml:space="preserve">baseline_train </t>
+  </si>
+  <si>
+    <t>baseline_focus_train</t>
+  </si>
+  <si>
+    <t>HWUbaseline_train</t>
+  </si>
 </sst>
 </file>
 
@@ -102,7 +213,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -110,14 +221,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -130,6 +257,4069 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Joint Goal </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2waymodel_topline _train</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:marker/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>Topline!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.68750549999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75072340000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77562469999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78448050000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79359930000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7987725</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.80035069999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.80473479999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.80543620000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.80543620000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.80543620000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2waymodel_topline _dev</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$D$14:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.60114699999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66319079999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.68482790000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.70177270000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71011469999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.71611049999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.71897809999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.72106360000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.7241919</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.7244526</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7244526</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>baseline_train </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$G$2:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.58228849999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58228849999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58228849999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58228849999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.58228849999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.58228849999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.58228849999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.58228849999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.58228849999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.58228849999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.58228849999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$G$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>baseline_dev</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$G$14:$G$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.50104280000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50104280000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50104280000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.50104280000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50104280000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50104280000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.50104280000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.50104280000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.50104280000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.50104280000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.50104280000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>baseline_focus_train</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$N$2:$N$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.7153003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7153003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7153003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7153003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7153003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7153003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7153003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7153003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.7153003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.7153003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7153003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$N$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>baseline_focus_dev</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$N$14:$N$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.61209590000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61209590000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61209590000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61209590000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.61209590000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.61209590000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.61209590000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.61209590000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.61209590000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.61209590000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.61209590000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HWUbaseline_train</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$R$2:$R$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.73195969999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73195969999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73195969999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73195969999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.73195969999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.73195969999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.73195969999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.73195969999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.73195969999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.73195969999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.73195969999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$R$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HWUbaseline_dev</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$R$14:$R$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.62304479999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.62304479999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62304479999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.62304479999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62304479999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.62304479999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.62304479999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.62304479999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.62304479999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.62304479999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.62304479999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="78482432"/>
+        <c:axId val="92929024"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="78482432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="92929024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="92929024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="78482432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Requested</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2waymodel_topline _train</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Topline!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.93828489999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94746790000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94881839999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95003380000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95030380000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95003380000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95016880000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95138420000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9520594</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9520594</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9520594</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2waymodel_topline _dev</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$E$14:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.93689149999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94734940000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94951319999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94987379999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94951319999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95023440000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95059499999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94843129999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.94951319999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.94951319999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.94951319999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>baseline_train </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$H$2:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.90938560000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90938560000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90938560000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90938560000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90938560000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90938560000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90938560000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.90938560000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.90938560000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.90938560000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.90938560000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$G$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>baseline_dev</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$H$14:$H$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.90299309999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90299309999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90299309999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90299309999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90299309999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90299309999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90299309999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.90299309999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.90299309999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.90299309999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.90299309999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>baseline_focus_train</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$O$2:$O$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.90573939999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90573939999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90573939999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90573939999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90573939999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90573939999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90573939999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.90573939999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.90573939999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.90573939999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.90573939999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$N$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>baseline_focus_dev</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$O$14:$O$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.89361699999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89361699999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89361699999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89361699999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89361699999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.89361699999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.89361699999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.89361699999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.89361699999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89361699999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.89361699999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HWUbaseline_train</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$S$2:$S$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.91654290000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91654290000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91654290000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91654290000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91654290000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91654290000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.91654290000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.91654290000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.91654290000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.91654290000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.91654290000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$R$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HWUbaseline_dev</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$T$14:$T$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.86032070000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86032070000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86032070000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86032070000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86032070000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86032070000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.86032070000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.86032070000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.86032070000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.86032070000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.86032070000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2waymodel_topline _train</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>Topline!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.93828489999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94746790000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94881839999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95003380000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95030380000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95003380000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95016880000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95138420000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9520594</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9520594</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9520594</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2waymodel_topline _dev</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$E$14:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.93689149999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94734940000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94951319999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94987379999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94951319999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95023440000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95059499999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94843129999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.94951319999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.94951319999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.94951319999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>baseline_train </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$H$2:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.90938560000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90938560000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90938560000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90938560000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90938560000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90938560000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90938560000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.90938560000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.90938560000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.90938560000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.90938560000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$G$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>baseline_dev</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$H$14:$H$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.90299309999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90299309999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90299309999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90299309999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90299309999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90299309999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90299309999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.90299309999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.90299309999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.90299309999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.90299309999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>baseline_focus_train</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$O$2:$O$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.90573939999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90573939999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90573939999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90573939999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90573939999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90573939999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90573939999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.90573939999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.90573939999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.90573939999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.90573939999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$N$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>baseline_focus_dev</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$O$14:$O$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.89361699999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89361699999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89361699999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89361699999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89361699999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.89361699999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.89361699999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.89361699999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.89361699999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89361699999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.89361699999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HWUbaseline_train</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$S$2:$S$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.91654290000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91654290000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91654290000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91654290000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91654290000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91654290000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.91654290000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.91654290000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.91654290000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.91654290000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.91654290000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$R$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HWUbaseline_dev</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$T$14:$T$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.86032070000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86032070000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86032070000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86032070000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86032070000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86032070000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.86032070000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.86032070000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.86032070000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.86032070000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.86032070000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="112889216"/>
+        <c:axId val="112899200"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="112889216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="112899200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="112899200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="112889216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="8"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="9"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="10"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="11"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="12"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="13"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="14"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="15"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Requested</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2waymodel_topline _train</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Topline!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$F$2:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.88382830000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92562920000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93773399999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94234960000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94443960000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94565880000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94679089999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94748759999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.94757469999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.94757469999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.94757469999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2waymodel_topline _dev</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$F$14:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.8564408</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88644590000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89782720000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90506980000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90972580000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91308849999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.91438180000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.91877909999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.91877909999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.91903780000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.91903780000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="18"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>baseline_train </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$I$2:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.8360185</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8360185</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8360185</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8360185</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8360185</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8360185</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8360185</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8360185</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8360185</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.8360185</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.8360185</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="19"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$G$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>baseline_dev</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$I$14:$I$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.81298499999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.81298499999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81298499999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81298499999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81298499999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.81298499999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.81298499999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.81298499999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.81298499999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.81298499999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.81298499999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="20"/>
+          <c:order val="20"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>baseline_focus_train</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$P$2:$P$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.85805100000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85805100000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85805100000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85805100000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85805100000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85805100000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85805100000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85805100000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85805100000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.85805100000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.85805100000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="21"/>
+          <c:order val="21"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$N$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>baseline_focus_dev</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$P$14:$P$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.83031560000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83031560000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83031560000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83031560000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83031560000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83031560000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.83031560000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.83031560000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.83031560000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.83031560000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.83031560000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="22"/>
+          <c:order val="22"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HWUbaseline_train</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$T$2:$T$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.88800840000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88800840000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88800840000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.88800840000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.88800840000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.88800840000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.88800840000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.88800840000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.88800840000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.88800840000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.88800840000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="23"/>
+          <c:order val="23"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$R$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HWUbaseline_dev</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$T$14:$T$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.86032070000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86032070000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86032070000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86032070000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86032070000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86032070000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.86032070000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.86032070000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.86032070000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.86032070000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.86032070000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2waymodel_topline _train</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Topline!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.93828489999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94746790000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94881839999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95003380000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95030380000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95003380000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95016880000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95138420000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9520594</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9520594</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9520594</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2waymodel_topline _dev</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$E$14:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.93689149999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94734940000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94951319999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94987379999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94951319999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95023440000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95059499999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94843129999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.94951319999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.94951319999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.94951319999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>baseline_train </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$H$2:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.90938560000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90938560000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90938560000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90938560000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90938560000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90938560000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90938560000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.90938560000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.90938560000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.90938560000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.90938560000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$G$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>baseline_dev</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$H$14:$H$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.90299309999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90299309999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90299309999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90299309999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90299309999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90299309999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90299309999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.90299309999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.90299309999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.90299309999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.90299309999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>baseline_focus_train</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$O$2:$O$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.90573939999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90573939999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90573939999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90573939999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90573939999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90573939999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90573939999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.90573939999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.90573939999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.90573939999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.90573939999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$N$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>baseline_focus_dev</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$O$14:$O$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.89361699999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89361699999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89361699999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89361699999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89361699999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.89361699999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.89361699999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.89361699999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.89361699999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89361699999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.89361699999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HWUbaseline_train</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$S$2:$S$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.91654290000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91654290000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91654290000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91654290000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91654290000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91654290000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.91654290000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.91654290000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.91654290000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.91654290000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.91654290000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$R$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HWUbaseline_dev</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$T$14:$T$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.86032070000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86032070000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86032070000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86032070000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86032070000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86032070000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.86032070000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.86032070000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.86032070000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.86032070000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.86032070000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2waymodel_topline _train</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>Topline!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.93828489999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94746790000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94881839999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95003380000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95030380000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95003380000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95016880000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95138420000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9520594</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9520594</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9520594</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2waymodel_topline _dev</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$E$14:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.93689149999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94734940000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94951319999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94987379999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94951319999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95023440000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95059499999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94843129999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.94951319999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.94951319999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.94951319999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>baseline_train </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$H$2:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.90938560000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90938560000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90938560000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90938560000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90938560000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90938560000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90938560000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.90938560000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.90938560000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.90938560000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.90938560000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$G$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>baseline_dev</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$H$14:$H$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.90299309999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90299309999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90299309999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90299309999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90299309999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90299309999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90299309999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.90299309999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.90299309999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.90299309999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.90299309999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>baseline_focus_train</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$O$2:$O$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.90573939999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90573939999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90573939999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90573939999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90573939999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90573939999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90573939999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.90573939999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.90573939999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.90573939999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.90573939999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$N$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>baseline_focus_dev</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$O$14:$O$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.89361699999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89361699999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89361699999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89361699999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89361699999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.89361699999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.89361699999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.89361699999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.89361699999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89361699999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.89361699999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HWUbaseline_train</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$S$2:$S$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.91654290000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91654290000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91654290000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91654290000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91654290000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91654290000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.91654290000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.91654290000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.91654290000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.91654290000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.91654290000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Topline!$R$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HWUbaseline_dev</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Topline!$T$14:$T$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.86032070000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86032070000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86032070000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86032070000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86032070000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86032070000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.86032070000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.86032070000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.86032070000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.86032070000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.86032070000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="113112192"/>
+        <c:axId val="115794688"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="113112192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="115794688"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="115794688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="113112192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="8"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="9"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="10"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="11"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="12"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="13"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="14"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="15"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="16"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="17"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="18"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="19"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="20"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="21"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="22"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="23"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>33336</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -421,1044 +4611,3089 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection sqref="A1:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>0.91710000000000003</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>0.15570000000000001</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>0.85980000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>0.92400000000000004</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>0.14499999999999999</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>0.9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>0.94869999999999999</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>0.1052</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>0.89910000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>0.88019999999999998</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>0.1832</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>0.78259999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>0.82230000000000003</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>0.31730000000000003</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>0.65980000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>0.77839999999999998</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>0.41360000000000002</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>0.58899999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>0.67989999999999995</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>0.55920000000000003</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>0.39460000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>0.73680000000000001</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>0.40439999999999998</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>0.3301</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>0.86219999999999997</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>0.27779999999999999</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>0.71389999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>0.85440000000000005</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>0.31080000000000002</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>0.68679999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>0.82789999999999997</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>0.36659999999999998</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="2">
         <v>0.42720000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>0.74060000000000004</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>0.39889999999999998</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="2">
         <v>0.34710000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="3">
         <v>0.93</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="3">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="3">
         <v>0.93149999999999999</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="3">
         <v>9.69E-2</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>0.90900000000000003</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>0.12870000000000001</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="3">
         <v>0.8841</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="3">
         <v>0.1638</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="3">
         <v>0.84570000000000001</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="3">
         <v>0.21820000000000001</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="3">
         <v>0.78410000000000002</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="3">
         <v>0.30530000000000002</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>0.61850000000000005</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <v>0.53949999999999998</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="3">
         <v>0.76800000000000002</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="3">
         <v>0.3281</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="3">
         <v>0.90700000000000003</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="3">
         <v>0.13150000000000001</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="3">
         <v>0.88519999999999999</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="3">
         <v>0.1623</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>0.68440000000000001</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1">
         <v>0.44640000000000002</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="3">
         <v>0.73209999999999997</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="3">
         <v>0.37890000000000001</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <v>0.81899999999999995</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="1">
         <v>0.19309999999999999</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
         <v>0.7994</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="1">
         <v>0.20979999999999999</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="1">
         <v>0.86150000000000004</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="1">
         <v>0.20930000000000001</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="1">
         <v>0.88170000000000004</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="1">
         <v>0.16800000000000001</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="1">
         <v>0.70850000000000002</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="1">
         <v>0.33460000000000001</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="1">
         <v>0.53069999999999995</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="1">
         <v>0.52159999999999995</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="1">
         <v>0.53510000000000002</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="1">
         <v>0.70389999999999997</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="1">
         <v>0.76019999999999999</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="1">
         <v>0.34060000000000001</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="1">
         <v>0.63349999999999995</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="1">
         <v>0.36549999999999999</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="1">
         <v>0.4869</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="1">
         <v>0.50570000000000004</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="1">
         <v>0.501</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="1">
         <v>0.76470000000000005</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="1">
         <v>0.7258</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="1">
         <v>0.39040000000000002</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="1">
         <v>0.93010000000000004</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="1">
         <v>0.14599999999999999</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="1">
         <v>0.93100000000000005</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="1">
         <v>0.15340000000000001</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="1">
         <v>0.90900000000000003</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="1">
         <v>0.16900000000000001</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="1">
         <v>0.8841</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="1">
         <v>0.16589999999999999</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="1">
         <v>0.84560000000000002</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="1">
         <v>0.27639999999999998</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="1">
         <v>0.78269999999999995</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="1">
         <v>0.41349999999999998</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="1">
         <v>0.61850000000000005</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="1">
         <v>0.62170000000000003</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="1">
         <v>0.76800000000000002</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="1">
         <v>0.33439999999999998</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="1">
         <v>0.90659999999999996</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="1">
         <v>0.2485</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="1">
         <v>0.88390000000000002</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="1">
         <v>0.33400000000000002</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="1">
         <v>0.68440000000000001</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="1">
         <v>0.60550000000000004</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="1">
         <v>0.73209999999999997</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="1">
         <v>0.38469999999999999</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>11677</v>
+      </c>
+      <c r="C3">
+        <v>3934</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>11677</v>
+      </c>
+      <c r="G3">
+        <v>3934</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>-1</v>
+      </c>
+      <c r="B4">
+        <v>2842</v>
+      </c>
+      <c r="C4">
+        <v>1145</v>
+      </c>
+      <c r="E4">
+        <v>-1</v>
+      </c>
+      <c r="F4">
+        <v>2221</v>
+      </c>
+      <c r="G4">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>7711</v>
+      </c>
+      <c r="C5">
+        <v>2374</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>8380</v>
+      </c>
+      <c r="G5">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>536</v>
+      </c>
+      <c r="C6">
+        <v>187</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>551</v>
+      </c>
+      <c r="G6">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>265</v>
+      </c>
+      <c r="C7">
+        <v>85</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>212</v>
+      </c>
+      <c r="G7">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>118</v>
+      </c>
+      <c r="C8">
+        <v>46</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>110</v>
+      </c>
+      <c r="G8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>70</v>
+      </c>
+      <c r="C9">
+        <v>34</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>68</v>
+      </c>
+      <c r="G9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>47</v>
+      </c>
+      <c r="C10">
+        <v>19</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>48</v>
+      </c>
+      <c r="G10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>37</v>
+      </c>
+      <c r="C11">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>35</v>
+      </c>
+      <c r="G11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>38</v>
+      </c>
+      <c r="C12">
+        <v>19</v>
+      </c>
+      <c r="E12">
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <v>40</v>
+      </c>
+      <c r="G12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>11</v>
+      </c>
+      <c r="G13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="1" customWidth="1"/>
+    <col min="3" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.878</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.871</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.93200000000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.91400000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.95499999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.92900000000000005</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>0.58228849999999999</v>
+      </c>
+      <c r="D2">
+        <v>0.90938560000000002</v>
+      </c>
+      <c r="E2">
+        <v>0.8360185</v>
+      </c>
+      <c r="F2">
+        <v>0.81013109999999999</v>
+      </c>
+      <c r="G2">
+        <v>0.1504665</v>
+      </c>
+      <c r="H2">
+        <v>0.28890270000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>0.50104280000000001</v>
+      </c>
+      <c r="D3">
+        <v>0.90299309999999999</v>
+      </c>
+      <c r="E3">
+        <v>0.81298499999999996</v>
+      </c>
+      <c r="F3">
+        <v>0.96085379999999998</v>
+      </c>
+      <c r="G3">
+        <v>0.15462870000000001</v>
+      </c>
+      <c r="H3">
+        <v>0.33335209999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>0.7153003</v>
+      </c>
+      <c r="D5">
+        <v>0.90573939999999997</v>
+      </c>
+      <c r="E5">
+        <v>0.85805100000000001</v>
+      </c>
+      <c r="F5">
+        <v>0.47137980000000002</v>
+      </c>
+      <c r="G5">
+        <v>0.15670970000000001</v>
+      </c>
+      <c r="H5">
+        <v>0.2208987</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>0.61209590000000003</v>
+      </c>
+      <c r="D6">
+        <v>0.89361699999999999</v>
+      </c>
+      <c r="E6">
+        <v>0.83031560000000004</v>
+      </c>
+      <c r="F6">
+        <v>0.63186900000000001</v>
+      </c>
+      <c r="G6">
+        <v>0.1743412</v>
+      </c>
+      <c r="H6">
+        <v>0.26579750000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>0.73195969999999999</v>
+      </c>
+      <c r="D8">
+        <v>0.91654290000000005</v>
+      </c>
+      <c r="E8">
+        <v>0.88800840000000003</v>
+      </c>
+      <c r="F8">
+        <v>0.45122269999999998</v>
+      </c>
+      <c r="G8">
+        <v>0.14023430000000001</v>
+      </c>
+      <c r="H8">
+        <v>0.16506129999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>0.62304479999999995</v>
+      </c>
+      <c r="D9">
+        <v>0.90263249999999995</v>
+      </c>
+      <c r="E9">
+        <v>0.86032070000000005</v>
+      </c>
+      <c r="F9">
+        <v>0.60135640000000001</v>
+      </c>
+      <c r="G9">
+        <v>0.16429659999999999</v>
+      </c>
+      <c r="H9">
+        <v>0.2168224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>0.63489700000000004</v>
+      </c>
+      <c r="D11">
+        <v>0.91060090000000005</v>
+      </c>
+      <c r="E11">
+        <v>0.63145519999999999</v>
+      </c>
+      <c r="F11">
+        <v>0.73020600000000002</v>
+      </c>
+      <c r="G11">
+        <v>0.17879809999999999</v>
+      </c>
+      <c r="H11">
+        <v>0.73708960000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <v>0.56360790000000005</v>
+      </c>
+      <c r="D12">
+        <v>0.90010820000000002</v>
+      </c>
+      <c r="E12">
+        <v>0.56673560000000001</v>
+      </c>
+      <c r="F12">
+        <v>0.87278420000000001</v>
+      </c>
+      <c r="G12">
+        <v>0.19978360000000001</v>
+      </c>
+      <c r="H12">
+        <v>0.86652870000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>0.4449803</v>
+      </c>
+      <c r="D14">
+        <v>0.91208639999999996</v>
+      </c>
+      <c r="E14">
+        <v>0.56814419999999999</v>
+      </c>
+      <c r="F14">
+        <v>1.1100395000000001</v>
+      </c>
+      <c r="G14">
+        <v>0.17582709999999999</v>
+      </c>
+      <c r="H14">
+        <v>0.86371160000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>0.38034410000000002</v>
+      </c>
+      <c r="D15">
+        <v>0.89902629999999994</v>
+      </c>
+      <c r="E15">
+        <v>0.50206930000000005</v>
+      </c>
+      <c r="F15">
+        <v>1.2393118000000001</v>
+      </c>
+      <c r="G15">
+        <v>0.2019473</v>
+      </c>
+      <c r="H15">
+        <v>0.99586140000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17">
+        <v>0.45567730000000001</v>
+      </c>
+      <c r="D17">
+        <v>0.93828489999999998</v>
+      </c>
+      <c r="E17">
+        <v>0.549508</v>
+      </c>
+      <c r="F17">
+        <v>1.0886453</v>
+      </c>
+      <c r="G17">
+        <v>0.1234301</v>
+      </c>
+      <c r="H17">
+        <v>0.90098409999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18">
+        <v>0.3967675</v>
+      </c>
+      <c r="D18">
+        <v>0.93689149999999999</v>
+      </c>
+      <c r="E18">
+        <v>0.47542679999999998</v>
+      </c>
+      <c r="F18">
+        <v>1.2064651</v>
+      </c>
+      <c r="G18">
+        <v>0.1262171</v>
+      </c>
+      <c r="H18">
+        <v>1.0491463999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.68750549999999999</v>
+      </c>
+      <c r="D20">
+        <v>0.93828489999999998</v>
+      </c>
+      <c r="E20">
+        <v>0.88382830000000001</v>
+      </c>
+      <c r="F20">
+        <v>0.62498900000000002</v>
+      </c>
+      <c r="G20">
+        <v>0.1234301</v>
+      </c>
+      <c r="H20">
+        <v>0.23234350000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.60114699999999999</v>
+      </c>
+      <c r="D21">
+        <v>0.93689149999999999</v>
+      </c>
+      <c r="E21">
+        <v>0.8564408</v>
+      </c>
+      <c r="F21">
+        <v>0.79770589999999997</v>
+      </c>
+      <c r="G21">
+        <v>0.1262171</v>
+      </c>
+      <c r="H21">
+        <v>0.2871185</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="C2">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="D2">
+        <v>0.86899999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="C3">
+        <v>0.85</v>
+      </c>
+      <c r="D3">
+        <v>0.82599999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T24"/>
+  <sheetViews>
+    <sheetView topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="13" width="0" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0.68750549999999999</v>
+      </c>
+      <c r="E2">
+        <v>0.93828489999999998</v>
+      </c>
+      <c r="F2">
+        <v>0.88382830000000001</v>
+      </c>
+      <c r="G2">
+        <v>0.58228849999999999</v>
+      </c>
+      <c r="H2">
+        <v>0.90938560000000002</v>
+      </c>
+      <c r="I2">
+        <v>0.8360185</v>
+      </c>
+      <c r="J2">
+        <v>0.81013109999999999</v>
+      </c>
+      <c r="K2">
+        <v>0.1504665</v>
+      </c>
+      <c r="L2">
+        <v>0.28890270000000001</v>
+      </c>
+      <c r="M2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2">
+        <v>0.7153003</v>
+      </c>
+      <c r="O2">
+        <v>0.90573939999999997</v>
+      </c>
+      <c r="P2">
+        <v>0.85805100000000001</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2">
+        <v>0.73195969999999999</v>
+      </c>
+      <c r="S2">
+        <v>0.91654290000000005</v>
+      </c>
+      <c r="T2">
+        <v>0.88800840000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.75072340000000004</v>
+      </c>
+      <c r="E3">
+        <v>0.94746790000000003</v>
+      </c>
+      <c r="F3">
+        <v>0.92562920000000004</v>
+      </c>
+      <c r="G3">
+        <v>0.58228849999999999</v>
+      </c>
+      <c r="H3">
+        <v>0.90938560000000002</v>
+      </c>
+      <c r="I3">
+        <v>0.8360185</v>
+      </c>
+      <c r="N3">
+        <v>0.7153003</v>
+      </c>
+      <c r="O3">
+        <v>0.90573939999999997</v>
+      </c>
+      <c r="P3">
+        <v>0.85805100000000001</v>
+      </c>
+      <c r="R3">
+        <v>0.73195969999999999</v>
+      </c>
+      <c r="S3">
+        <v>0.91654290000000005</v>
+      </c>
+      <c r="T3">
+        <v>0.88800840000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>0.77562469999999994</v>
+      </c>
+      <c r="E4">
+        <v>0.94881839999999995</v>
+      </c>
+      <c r="F4">
+        <v>0.93773399999999996</v>
+      </c>
+      <c r="G4">
+        <v>0.58228849999999999</v>
+      </c>
+      <c r="H4">
+        <v>0.90938560000000002</v>
+      </c>
+      <c r="I4">
+        <v>0.8360185</v>
+      </c>
+      <c r="N4">
+        <v>0.7153003</v>
+      </c>
+      <c r="O4">
+        <v>0.90573939999999997</v>
+      </c>
+      <c r="P4">
+        <v>0.85805100000000001</v>
+      </c>
+      <c r="R4">
+        <v>0.73195969999999999</v>
+      </c>
+      <c r="S4">
+        <v>0.91654290000000005</v>
+      </c>
+      <c r="T4">
+        <v>0.88800840000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>0.78448050000000003</v>
+      </c>
+      <c r="E5">
+        <v>0.95003380000000004</v>
+      </c>
+      <c r="F5">
+        <v>0.94234960000000001</v>
+      </c>
+      <c r="G5">
+        <v>0.58228849999999999</v>
+      </c>
+      <c r="H5">
+        <v>0.90938560000000002</v>
+      </c>
+      <c r="I5">
+        <v>0.8360185</v>
+      </c>
+      <c r="J5">
+        <v>0.47137980000000002</v>
+      </c>
+      <c r="K5">
+        <v>0.15670970000000001</v>
+      </c>
+      <c r="L5">
+        <v>0.2208987</v>
+      </c>
+      <c r="N5">
+        <v>0.7153003</v>
+      </c>
+      <c r="O5">
+        <v>0.90573939999999997</v>
+      </c>
+      <c r="P5">
+        <v>0.85805100000000001</v>
+      </c>
+      <c r="R5">
+        <v>0.73195969999999999</v>
+      </c>
+      <c r="S5">
+        <v>0.91654290000000005</v>
+      </c>
+      <c r="T5">
+        <v>0.88800840000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>0.79359930000000001</v>
+      </c>
+      <c r="E6">
+        <v>0.95030380000000003</v>
+      </c>
+      <c r="F6">
+        <v>0.94443960000000005</v>
+      </c>
+      <c r="G6">
+        <v>0.58228849999999999</v>
+      </c>
+      <c r="H6">
+        <v>0.90938560000000002</v>
+      </c>
+      <c r="I6">
+        <v>0.8360185</v>
+      </c>
+      <c r="J6">
+        <v>0.63186900000000001</v>
+      </c>
+      <c r="K6">
+        <v>0.1743412</v>
+      </c>
+      <c r="L6">
+        <v>0.26579750000000002</v>
+      </c>
+      <c r="N6">
+        <v>0.7153003</v>
+      </c>
+      <c r="O6">
+        <v>0.90573939999999997</v>
+      </c>
+      <c r="P6">
+        <v>0.85805100000000001</v>
+      </c>
+      <c r="R6">
+        <v>0.73195969999999999</v>
+      </c>
+      <c r="S6">
+        <v>0.91654290000000005</v>
+      </c>
+      <c r="T6">
+        <v>0.88800840000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>0.7987725</v>
+      </c>
+      <c r="E7">
+        <v>0.95003380000000004</v>
+      </c>
+      <c r="F7">
+        <v>0.94565880000000002</v>
+      </c>
+      <c r="G7">
+        <v>0.58228849999999999</v>
+      </c>
+      <c r="H7">
+        <v>0.90938560000000002</v>
+      </c>
+      <c r="I7">
+        <v>0.8360185</v>
+      </c>
+      <c r="N7">
+        <v>0.7153003</v>
+      </c>
+      <c r="O7">
+        <v>0.90573939999999997</v>
+      </c>
+      <c r="P7">
+        <v>0.85805100000000001</v>
+      </c>
+      <c r="R7">
+        <v>0.73195969999999999</v>
+      </c>
+      <c r="S7">
+        <v>0.91654290000000005</v>
+      </c>
+      <c r="T7">
+        <v>0.88800840000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>0.80035069999999997</v>
+      </c>
+      <c r="E8">
+        <v>0.95016880000000004</v>
+      </c>
+      <c r="F8">
+        <v>0.94679089999999999</v>
+      </c>
+      <c r="G8">
+        <v>0.58228849999999999</v>
+      </c>
+      <c r="H8">
+        <v>0.90938560000000002</v>
+      </c>
+      <c r="I8">
+        <v>0.8360185</v>
+      </c>
+      <c r="J8">
+        <v>0.45122269999999998</v>
+      </c>
+      <c r="K8">
+        <v>0.14023430000000001</v>
+      </c>
+      <c r="L8">
+        <v>0.16506129999999999</v>
+      </c>
+      <c r="N8">
+        <v>0.7153003</v>
+      </c>
+      <c r="O8">
+        <v>0.90573939999999997</v>
+      </c>
+      <c r="P8">
+        <v>0.85805100000000001</v>
+      </c>
+      <c r="R8">
+        <v>0.73195969999999999</v>
+      </c>
+      <c r="S8">
+        <v>0.91654290000000005</v>
+      </c>
+      <c r="T8">
+        <v>0.88800840000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>0.80473479999999997</v>
+      </c>
+      <c r="E9">
+        <v>0.95138420000000001</v>
+      </c>
+      <c r="F9">
+        <v>0.94748759999999999</v>
+      </c>
+      <c r="G9">
+        <v>0.58228849999999999</v>
+      </c>
+      <c r="H9">
+        <v>0.90938560000000002</v>
+      </c>
+      <c r="I9">
+        <v>0.8360185</v>
+      </c>
+      <c r="J9">
+        <v>0.60135640000000001</v>
+      </c>
+      <c r="K9">
+        <v>0.16429659999999999</v>
+      </c>
+      <c r="L9">
+        <v>0.2168224</v>
+      </c>
+      <c r="N9">
+        <v>0.7153003</v>
+      </c>
+      <c r="O9">
+        <v>0.90573939999999997</v>
+      </c>
+      <c r="P9">
+        <v>0.85805100000000001</v>
+      </c>
+      <c r="R9">
+        <v>0.73195969999999999</v>
+      </c>
+      <c r="S9">
+        <v>0.91654290000000005</v>
+      </c>
+      <c r="T9">
+        <v>0.88800840000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>0.80543620000000005</v>
+      </c>
+      <c r="E10">
+        <v>0.9520594</v>
+      </c>
+      <c r="F10">
+        <v>0.94757469999999999</v>
+      </c>
+      <c r="G10">
+        <v>0.58228849999999999</v>
+      </c>
+      <c r="H10">
+        <v>0.90938560000000002</v>
+      </c>
+      <c r="I10">
+        <v>0.8360185</v>
+      </c>
+      <c r="N10">
+        <v>0.7153003</v>
+      </c>
+      <c r="O10">
+        <v>0.90573939999999997</v>
+      </c>
+      <c r="P10">
+        <v>0.85805100000000001</v>
+      </c>
+      <c r="R10">
+        <v>0.73195969999999999</v>
+      </c>
+      <c r="S10">
+        <v>0.91654290000000005</v>
+      </c>
+      <c r="T10">
+        <v>0.88800840000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>0.80543620000000005</v>
+      </c>
+      <c r="E11">
+        <v>0.9520594</v>
+      </c>
+      <c r="F11">
+        <v>0.94757469999999999</v>
+      </c>
+      <c r="G11">
+        <v>0.58228849999999999</v>
+      </c>
+      <c r="H11">
+        <v>0.90938560000000002</v>
+      </c>
+      <c r="I11">
+        <v>0.8360185</v>
+      </c>
+      <c r="N11">
+        <v>0.7153003</v>
+      </c>
+      <c r="O11">
+        <v>0.90573939999999997</v>
+      </c>
+      <c r="P11">
+        <v>0.85805100000000001</v>
+      </c>
+      <c r="R11">
+        <v>0.73195969999999999</v>
+      </c>
+      <c r="S11">
+        <v>0.91654290000000005</v>
+      </c>
+      <c r="T11">
+        <v>0.88800840000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>0.80543620000000005</v>
+      </c>
+      <c r="E12">
+        <v>0.9520594</v>
+      </c>
+      <c r="F12">
+        <v>0.94757469999999999</v>
+      </c>
+      <c r="G12">
+        <v>0.58228849999999999</v>
+      </c>
+      <c r="H12">
+        <v>0.90938560000000002</v>
+      </c>
+      <c r="I12">
+        <v>0.8360185</v>
+      </c>
+      <c r="N12">
+        <v>0.7153003</v>
+      </c>
+      <c r="O12">
+        <v>0.90573939999999997</v>
+      </c>
+      <c r="P12">
+        <v>0.85805100000000001</v>
+      </c>
+      <c r="R12">
+        <v>0.73195969999999999</v>
+      </c>
+      <c r="S12">
+        <v>0.91654290000000005</v>
+      </c>
+      <c r="T12">
+        <v>0.88800840000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>47</v>
+      </c>
+      <c r="N13" t="s">
+        <v>46</v>
+      </c>
+      <c r="R13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0.60114699999999999</v>
+      </c>
+      <c r="E14">
+        <v>0.93689149999999999</v>
+      </c>
+      <c r="F14">
+        <v>0.8564408</v>
+      </c>
+      <c r="G14">
+        <v>0.50104280000000001</v>
+      </c>
+      <c r="H14">
+        <v>0.90299309999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.81298499999999996</v>
+      </c>
+      <c r="J14">
+        <v>0.96085379999999998</v>
+      </c>
+      <c r="K14">
+        <v>0.15462870000000001</v>
+      </c>
+      <c r="L14">
+        <v>0.33335209999999998</v>
+      </c>
+      <c r="M14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14">
+        <v>0.61209590000000003</v>
+      </c>
+      <c r="O14">
+        <v>0.89361699999999999</v>
+      </c>
+      <c r="P14">
+        <v>0.83031560000000004</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14">
+        <v>0.62304479999999995</v>
+      </c>
+      <c r="S14">
+        <v>0.90263249999999995</v>
+      </c>
+      <c r="T14">
+        <v>0.86032070000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0.66319079999999997</v>
+      </c>
+      <c r="E15">
+        <v>0.94734940000000001</v>
+      </c>
+      <c r="F15">
+        <v>0.88644590000000001</v>
+      </c>
+      <c r="G15">
+        <v>0.50104280000000001</v>
+      </c>
+      <c r="H15">
+        <v>0.90299309999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.81298499999999996</v>
+      </c>
+      <c r="N15">
+        <v>0.61209590000000003</v>
+      </c>
+      <c r="O15">
+        <v>0.89361699999999999</v>
+      </c>
+      <c r="P15">
+        <v>0.83031560000000004</v>
+      </c>
+      <c r="R15">
+        <v>0.62304479999999995</v>
+      </c>
+      <c r="S15">
+        <v>0.90263249999999995</v>
+      </c>
+      <c r="T15">
+        <v>0.86032070000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>0.68482790000000004</v>
+      </c>
+      <c r="E16">
+        <v>0.94951319999999995</v>
+      </c>
+      <c r="F16">
+        <v>0.89782720000000005</v>
+      </c>
+      <c r="G16">
+        <v>0.50104280000000001</v>
+      </c>
+      <c r="H16">
+        <v>0.90299309999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.81298499999999996</v>
+      </c>
+      <c r="N16">
+        <v>0.61209590000000003</v>
+      </c>
+      <c r="O16">
+        <v>0.89361699999999999</v>
+      </c>
+      <c r="P16">
+        <v>0.83031560000000004</v>
+      </c>
+      <c r="R16">
+        <v>0.62304479999999995</v>
+      </c>
+      <c r="S16">
+        <v>0.90263249999999995</v>
+      </c>
+      <c r="T16">
+        <v>0.86032070000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>0.70177270000000003</v>
+      </c>
+      <c r="E17">
+        <v>0.94987379999999999</v>
+      </c>
+      <c r="F17">
+        <v>0.90506980000000004</v>
+      </c>
+      <c r="G17">
+        <v>0.50104280000000001</v>
+      </c>
+      <c r="H17">
+        <v>0.90299309999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.81298499999999996</v>
+      </c>
+      <c r="N17">
+        <v>0.61209590000000003</v>
+      </c>
+      <c r="O17">
+        <v>0.89361699999999999</v>
+      </c>
+      <c r="P17">
+        <v>0.83031560000000004</v>
+      </c>
+      <c r="R17">
+        <v>0.62304479999999995</v>
+      </c>
+      <c r="S17">
+        <v>0.90263249999999995</v>
+      </c>
+      <c r="T17">
+        <v>0.86032070000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>0.71011469999999999</v>
+      </c>
+      <c r="E18">
+        <v>0.94951319999999995</v>
+      </c>
+      <c r="F18">
+        <v>0.90972580000000003</v>
+      </c>
+      <c r="G18">
+        <v>0.50104280000000001</v>
+      </c>
+      <c r="H18">
+        <v>0.90299309999999999</v>
+      </c>
+      <c r="I18">
+        <v>0.81298499999999996</v>
+      </c>
+      <c r="N18">
+        <v>0.61209590000000003</v>
+      </c>
+      <c r="O18">
+        <v>0.89361699999999999</v>
+      </c>
+      <c r="P18">
+        <v>0.83031560000000004</v>
+      </c>
+      <c r="R18">
+        <v>0.62304479999999995</v>
+      </c>
+      <c r="S18">
+        <v>0.90263249999999995</v>
+      </c>
+      <c r="T18">
+        <v>0.86032070000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>0.71611049999999998</v>
+      </c>
+      <c r="E19">
+        <v>0.95023440000000003</v>
+      </c>
+      <c r="F19">
+        <v>0.91308849999999997</v>
+      </c>
+      <c r="G19">
+        <v>0.50104280000000001</v>
+      </c>
+      <c r="H19">
+        <v>0.90299309999999999</v>
+      </c>
+      <c r="I19">
+        <v>0.81298499999999996</v>
+      </c>
+      <c r="N19">
+        <v>0.61209590000000003</v>
+      </c>
+      <c r="O19">
+        <v>0.89361699999999999</v>
+      </c>
+      <c r="P19">
+        <v>0.83031560000000004</v>
+      </c>
+      <c r="R19">
+        <v>0.62304479999999995</v>
+      </c>
+      <c r="S19">
+        <v>0.90263249999999995</v>
+      </c>
+      <c r="T19">
+        <v>0.86032070000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>0.71897809999999995</v>
+      </c>
+      <c r="E20">
+        <v>0.95059499999999997</v>
+      </c>
+      <c r="F20">
+        <v>0.91438180000000002</v>
+      </c>
+      <c r="G20">
+        <v>0.50104280000000001</v>
+      </c>
+      <c r="H20">
+        <v>0.90299309999999999</v>
+      </c>
+      <c r="I20">
+        <v>0.81298499999999996</v>
+      </c>
+      <c r="N20">
+        <v>0.61209590000000003</v>
+      </c>
+      <c r="O20">
+        <v>0.89361699999999999</v>
+      </c>
+      <c r="P20">
+        <v>0.83031560000000004</v>
+      </c>
+      <c r="R20">
+        <v>0.62304479999999995</v>
+      </c>
+      <c r="S20">
+        <v>0.90263249999999995</v>
+      </c>
+      <c r="T20">
+        <v>0.86032070000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>0.72106360000000003</v>
+      </c>
+      <c r="E21">
+        <v>0.94843129999999998</v>
+      </c>
+      <c r="F21">
+        <v>0.91877909999999996</v>
+      </c>
+      <c r="G21">
+        <v>0.50104280000000001</v>
+      </c>
+      <c r="H21">
+        <v>0.90299309999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.81298499999999996</v>
+      </c>
+      <c r="N21">
+        <v>0.61209590000000003</v>
+      </c>
+      <c r="O21">
+        <v>0.89361699999999999</v>
+      </c>
+      <c r="P21">
+        <v>0.83031560000000004</v>
+      </c>
+      <c r="R21">
+        <v>0.62304479999999995</v>
+      </c>
+      <c r="S21">
+        <v>0.90263249999999995</v>
+      </c>
+      <c r="T21">
+        <v>0.86032070000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>0.7241919</v>
+      </c>
+      <c r="E22">
+        <v>0.94951319999999995</v>
+      </c>
+      <c r="F22">
+        <v>0.91877909999999996</v>
+      </c>
+      <c r="G22">
+        <v>0.50104280000000001</v>
+      </c>
+      <c r="H22">
+        <v>0.90299309999999999</v>
+      </c>
+      <c r="I22">
+        <v>0.81298499999999996</v>
+      </c>
+      <c r="N22">
+        <v>0.61209590000000003</v>
+      </c>
+      <c r="O22">
+        <v>0.89361699999999999</v>
+      </c>
+      <c r="P22">
+        <v>0.83031560000000004</v>
+      </c>
+      <c r="R22">
+        <v>0.62304479999999995</v>
+      </c>
+      <c r="S22">
+        <v>0.90263249999999995</v>
+      </c>
+      <c r="T22">
+        <v>0.86032070000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23">
+        <v>9</v>
+      </c>
+      <c r="D23">
+        <v>0.7244526</v>
+      </c>
+      <c r="E23">
+        <v>0.94951319999999995</v>
+      </c>
+      <c r="F23">
+        <v>0.91903780000000002</v>
+      </c>
+      <c r="G23">
+        <v>0.50104280000000001</v>
+      </c>
+      <c r="H23">
+        <v>0.90299309999999999</v>
+      </c>
+      <c r="I23">
+        <v>0.81298499999999996</v>
+      </c>
+      <c r="N23">
+        <v>0.61209590000000003</v>
+      </c>
+      <c r="O23">
+        <v>0.89361699999999999</v>
+      </c>
+      <c r="P23">
+        <v>0.83031560000000004</v>
+      </c>
+      <c r="R23">
+        <v>0.62304479999999995</v>
+      </c>
+      <c r="S23">
+        <v>0.90263249999999995</v>
+      </c>
+      <c r="T23">
+        <v>0.86032070000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>0.7244526</v>
+      </c>
+      <c r="E24">
+        <v>0.94951319999999995</v>
+      </c>
+      <c r="F24">
+        <v>0.91903780000000002</v>
+      </c>
+      <c r="G24">
+        <v>0.50104280000000001</v>
+      </c>
+      <c r="H24">
+        <v>0.90299309999999999</v>
+      </c>
+      <c r="I24">
+        <v>0.81298499999999996</v>
+      </c>
+      <c r="N24">
+        <v>0.61209590000000003</v>
+      </c>
+      <c r="O24">
+        <v>0.89361699999999999</v>
+      </c>
+      <c r="P24">
+        <v>0.83031560000000004</v>
+      </c>
+      <c r="R24">
+        <v>0.62304479999999995</v>
+      </c>
+      <c r="S24">
+        <v>0.90263249999999995</v>
+      </c>
+      <c r="T24">
+        <v>0.86032070000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/11.07.2013 Meeting/Results.xlsx
+++ b/doc/11.07.2013 Meeting/Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ROC" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="54">
   <si>
     <t xml:space="preserve">method </t>
   </si>
@@ -179,6 +179,9 @@
   <si>
     <t>HWUbaseline_train</t>
   </si>
+  <si>
+    <t xml:space="preserve">baselineTop1 </t>
+  </si>
 </sst>
 </file>
 
@@ -324,7 +327,6 @@
           </c:marker>
           <c:dPt>
             <c:idx val="9"/>
-            <c:marker/>
             <c:bubble3D val="0"/>
           </c:dPt>
           <c:cat>
@@ -903,11 +905,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="78482432"/>
-        <c:axId val="92929024"/>
+        <c:axId val="84264064"/>
+        <c:axId val="84265600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78482432"/>
+        <c:axId val="84264064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -917,7 +919,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92929024"/>
+        <c:crossAx val="84265600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -925,7 +927,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92929024"/>
+        <c:axId val="84265600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.4"/>
@@ -937,7 +939,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78482432"/>
+        <c:crossAx val="84264064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2192,11 +2194,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="112889216"/>
-        <c:axId val="112899200"/>
+        <c:axId val="84357888"/>
+        <c:axId val="84359424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112889216"/>
+        <c:axId val="84357888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2206,7 +2208,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112899200"/>
+        <c:crossAx val="84359424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2214,7 +2216,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112899200"/>
+        <c:axId val="84359424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.8"/>
@@ -2226,7 +2228,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112889216"/>
+        <c:crossAx val="84357888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4103,11 +4105,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="113112192"/>
-        <c:axId val="115794688"/>
+        <c:axId val="86642688"/>
+        <c:axId val="86644224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113112192"/>
+        <c:axId val="86642688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4117,7 +4119,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115794688"/>
+        <c:crossAx val="86644224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4125,7 +4127,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115794688"/>
+        <c:axId val="86644224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.8"/>
@@ -4137,7 +4139,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113112192"/>
+        <c:crossAx val="86642688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4227,16 +4229,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>33336</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4257,16 +4259,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4289,16 +4291,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>238124</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5918,8 +5920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6075,10 +6077,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6270,184 +6272,184 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
       </c>
       <c r="C11">
-        <v>0.63489700000000004</v>
+        <v>0.55177549999999997</v>
       </c>
       <c r="D11">
-        <v>0.91060090000000005</v>
+        <v>0.89696149999999997</v>
       </c>
       <c r="E11">
-        <v>0.63145519999999999</v>
+        <v>0.80980580000000002</v>
       </c>
       <c r="F11">
-        <v>0.73020600000000002</v>
+        <v>0.85216709999999996</v>
       </c>
       <c r="G11">
-        <v>0.17879809999999999</v>
+        <v>0.1939478</v>
       </c>
       <c r="H11">
-        <v>0.73708960000000001</v>
+        <v>0.3114807</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
       </c>
       <c r="C12">
-        <v>0.56360790000000005</v>
+        <v>0.46532849999999998</v>
       </c>
       <c r="D12">
-        <v>0.90010820000000002</v>
+        <v>0.8914533</v>
       </c>
       <c r="E12">
-        <v>0.56673560000000001</v>
+        <v>0.76927060000000003</v>
       </c>
       <c r="F12">
-        <v>0.87278420000000001</v>
+        <v>1.0047010000000001</v>
       </c>
       <c r="G12">
-        <v>0.19978360000000001</v>
+        <v>0.18987780000000001</v>
       </c>
       <c r="H12">
-        <v>0.86652870000000004</v>
+        <v>0.37955739999999999</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
       </c>
       <c r="C14">
-        <v>0.4449803</v>
+        <v>0.63612449999999998</v>
       </c>
       <c r="D14">
-        <v>0.91208639999999996</v>
+        <v>0.91060090000000005</v>
       </c>
       <c r="E14">
-        <v>0.56814419999999999</v>
+        <v>0.87320390000000003</v>
       </c>
       <c r="F14">
-        <v>1.1100395000000001</v>
+        <v>0.72775100000000004</v>
       </c>
       <c r="G14">
-        <v>0.17582709999999999</v>
+        <v>0.17879809999999999</v>
       </c>
       <c r="H14">
-        <v>0.86371160000000002</v>
+        <v>0.25359229999999999</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
       </c>
       <c r="C15">
-        <v>0.38034410000000002</v>
+        <v>0.56517209999999996</v>
       </c>
       <c r="D15">
-        <v>0.89902629999999994</v>
+        <v>0.90010820000000002</v>
       </c>
       <c r="E15">
-        <v>0.50206930000000005</v>
+        <v>0.8535954</v>
       </c>
       <c r="F15">
-        <v>1.2393118000000001</v>
+        <v>0.86965590000000004</v>
       </c>
       <c r="G15">
-        <v>0.2019473</v>
+        <v>0.19978360000000001</v>
       </c>
       <c r="H15">
-        <v>0.99586140000000001</v>
+        <v>0.29280909999999999</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
       <c r="C17">
-        <v>0.45567730000000001</v>
+        <v>0.67365189999999997</v>
       </c>
       <c r="D17">
-        <v>0.93828489999999998</v>
+        <v>0.91181630000000002</v>
       </c>
       <c r="E17">
-        <v>0.549508</v>
+        <v>0.89027259999999997</v>
       </c>
       <c r="F17">
-        <v>1.0886453</v>
+        <v>0.65269619999999995</v>
       </c>
       <c r="G17">
-        <v>0.1234301</v>
+        <v>0.1763673</v>
       </c>
       <c r="H17">
-        <v>0.90098409999999995</v>
+        <v>0.21945480000000001</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
       </c>
       <c r="C18">
-        <v>0.3967675</v>
+        <v>0.58759119999999998</v>
       </c>
       <c r="D18">
-        <v>0.93689149999999999</v>
+        <v>0.90804180000000001</v>
       </c>
       <c r="E18">
-        <v>0.47542679999999998</v>
+        <v>0.86445939999999999</v>
       </c>
       <c r="F18">
-        <v>1.2064651</v>
+        <v>0.82481749999999998</v>
       </c>
       <c r="G18">
-        <v>0.1262171</v>
+        <v>0.1839163</v>
       </c>
       <c r="H18">
-        <v>1.0491463999999999</v>
+        <v>0.27108120000000002</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.68750549999999999</v>
+        <v>0.45567730000000001</v>
       </c>
       <c r="D20">
         <v>0.93828489999999998</v>
       </c>
       <c r="E20">
-        <v>0.88382830000000001</v>
+        <v>0.549508</v>
       </c>
       <c r="F20">
-        <v>0.62498900000000002</v>
+        <v>1.0886453</v>
       </c>
       <c r="G20">
         <v>0.1234301</v>
       </c>
       <c r="H20">
-        <v>0.23234350000000001</v>
+        <v>0.90098409999999995</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -6458,21 +6460,73 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.60114699999999999</v>
+        <v>0.3967675</v>
       </c>
       <c r="D21">
         <v>0.93689149999999999</v>
       </c>
       <c r="E21">
-        <v>0.8564408</v>
+        <v>0.47542679999999998</v>
       </c>
       <c r="F21">
-        <v>0.79770589999999997</v>
+        <v>1.2064651</v>
       </c>
       <c r="G21">
         <v>0.1262171</v>
       </c>
       <c r="H21">
+        <v>1.0491463999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23">
+        <v>0.68750549999999999</v>
+      </c>
+      <c r="D23">
+        <v>0.93828489999999998</v>
+      </c>
+      <c r="E23">
+        <v>0.88382830000000001</v>
+      </c>
+      <c r="F23">
+        <v>0.62498900000000002</v>
+      </c>
+      <c r="G23">
+        <v>0.1234301</v>
+      </c>
+      <c r="H23">
+        <v>0.23234350000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24">
+        <v>0.60114699999999999</v>
+      </c>
+      <c r="D24">
+        <v>0.93689149999999999</v>
+      </c>
+      <c r="E24">
+        <v>0.8564408</v>
+      </c>
+      <c r="F24">
+        <v>0.79770589999999997</v>
+      </c>
+      <c r="G24">
+        <v>0.1262171</v>
+      </c>
+      <c r="H24">
         <v>0.2871185</v>
       </c>
     </row>
@@ -6542,8 +6596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/doc/11.07.2013 Meeting/Results.xlsx
+++ b/doc/11.07.2013 Meeting/Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ROC" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="combined_H1" sheetId="4" r:id="rId4"/>
     <sheet name="Method" sheetId="5" r:id="rId5"/>
     <sheet name="Topline" sheetId="6" r:id="rId6"/>
+    <sheet name="H3" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="62">
   <si>
     <t xml:space="preserve">method </t>
   </si>
@@ -114,15 +115,6 @@
     <t xml:space="preserve">Method_accuracy </t>
   </si>
   <si>
-    <t xml:space="preserve">Joint_Goals_l2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requested_l2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Method_l2 </t>
-  </si>
-  <si>
     <t xml:space="preserve">baseline </t>
   </si>
   <si>
@@ -182,6 +174,39 @@
   <si>
     <t xml:space="preserve">baselineTop1 </t>
   </si>
+  <si>
+    <t>TA</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>computer:</t>
+  </si>
+  <si>
+    <t>user:</t>
+  </si>
+  <si>
+    <t>Joint_Goals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accuracy </t>
+  </si>
+  <si>
+    <t>Requested</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
 </sst>
 </file>
 
@@ -196,7 +221,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,6 +237,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,11 +280,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -905,11 +952,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="84264064"/>
-        <c:axId val="84265600"/>
+        <c:axId val="147281024"/>
+        <c:axId val="147282560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="84264064"/>
+        <c:axId val="147281024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -919,7 +966,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84265600"/>
+        <c:crossAx val="147282560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -927,7 +974,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84265600"/>
+        <c:axId val="147282560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.4"/>
@@ -939,7 +986,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84264064"/>
+        <c:crossAx val="147281024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2194,11 +2241,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="84357888"/>
-        <c:axId val="84359424"/>
+        <c:axId val="147360384"/>
+        <c:axId val="147378560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="84357888"/>
+        <c:axId val="147360384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2208,7 +2255,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84359424"/>
+        <c:crossAx val="147378560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2216,7 +2263,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84359424"/>
+        <c:axId val="147378560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.8"/>
@@ -2228,7 +2275,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84357888"/>
+        <c:crossAx val="147360384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4105,11 +4152,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="86642688"/>
-        <c:axId val="86644224"/>
+        <c:axId val="147147392"/>
+        <c:axId val="147165568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86642688"/>
+        <c:axId val="147147392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4119,7 +4166,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86644224"/>
+        <c:crossAx val="147165568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4127,7 +4174,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86644224"/>
+        <c:axId val="147165568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.8"/>
@@ -4139,7 +4186,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86642688"/>
+        <c:crossAx val="147147392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4611,23 +4658,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection sqref="A1:F26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="11.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4647,7 +4695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -4666,8 +4714,20 @@
       <c r="F2" s="2">
         <v>0.85980000000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -4686,8 +4746,20 @@
       <c r="F3" s="2">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I3" s="4">
+        <v>9898</v>
+      </c>
+      <c r="J3" s="4">
+        <v>85</v>
+      </c>
+      <c r="K3" s="4">
+        <v>8</v>
+      </c>
+      <c r="L3" s="4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -4707,7 +4779,7 @@
         <v>0.89910000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -4727,7 +4799,7 @@
         <v>0.78259999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -4747,7 +4819,7 @@
         <v>0.65980000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -4767,7 +4839,7 @@
         <v>0.58899999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -4787,7 +4859,7 @@
         <v>0.39460000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -4807,7 +4879,7 @@
         <v>0.3301</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -4827,7 +4899,7 @@
         <v>0.71389999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -4847,7 +4919,7 @@
         <v>0.68679999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -4867,7 +4939,7 @@
         <v>0.42720000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -4887,7 +4959,7 @@
         <v>0.34710000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -4907,7 +4979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -5648,7 +5720,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -6077,431 +6149,418 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="3" max="8" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" t="s">
-        <v>33</v>
-      </c>
+      <c r="C1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
-        <v>0.58228849999999999</v>
-      </c>
-      <c r="D2">
-        <v>0.90938560000000002</v>
-      </c>
-      <c r="E2">
-        <v>0.8360185</v>
-      </c>
-      <c r="F2">
-        <v>0.81013109999999999</v>
-      </c>
-      <c r="G2">
-        <v>0.1504665</v>
-      </c>
-      <c r="H2">
-        <v>0.28890270000000001</v>
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>0.58228849999999999</v>
+      </c>
+      <c r="D3">
+        <v>0.90938560000000002</v>
+      </c>
+      <c r="E3">
+        <v>0.8360185</v>
+      </c>
+      <c r="F3">
+        <v>0.81013109999999999</v>
+      </c>
+      <c r="G3">
+        <v>0.1504665</v>
+      </c>
+      <c r="H3">
+        <v>0.28890270000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>0.50104280000000001</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>0.90299309999999999</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>0.81298499999999996</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>0.96085379999999998</v>
       </c>
-      <c r="G3">
+      <c r="G4" s="8">
         <v>0.15462870000000001</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>0.33335209999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5">
-        <v>0.7153003</v>
-      </c>
-      <c r="D5">
-        <v>0.90573939999999997</v>
-      </c>
-      <c r="E5">
-        <v>0.85805100000000001</v>
-      </c>
-      <c r="F5">
-        <v>0.47137980000000002</v>
-      </c>
-      <c r="G5">
-        <v>0.15670970000000001</v>
-      </c>
-      <c r="H5">
-        <v>0.2208987</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>0.7153003</v>
+      </c>
+      <c r="D6">
+        <v>0.90573939999999997</v>
+      </c>
+      <c r="E6">
+        <v>0.85805100000000001</v>
+      </c>
+      <c r="F6">
+        <v>0.47137980000000002</v>
+      </c>
+      <c r="G6">
+        <v>0.15670970000000001</v>
+      </c>
+      <c r="H6">
+        <v>0.2208987</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>0.61209590000000003</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>0.89361699999999999</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>0.83031560000000004</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>0.63186900000000001</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>0.1743412</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>0.26579750000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8">
-        <v>0.73195969999999999</v>
-      </c>
-      <c r="D8">
-        <v>0.91654290000000005</v>
-      </c>
-      <c r="E8">
-        <v>0.88800840000000003</v>
-      </c>
-      <c r="F8">
-        <v>0.45122269999999998</v>
-      </c>
-      <c r="G8">
-        <v>0.14023430000000001</v>
-      </c>
-      <c r="H8">
-        <v>0.16506129999999999</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.73195969999999999</v>
+      </c>
+      <c r="D9">
+        <v>0.91654290000000005</v>
+      </c>
+      <c r="E9">
+        <v>0.88800840000000003</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.45122269999999998</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.14023430000000001</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0.16506129999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C9">
+      <c r="C10" s="5">
         <v>0.62304479999999995</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>0.90263249999999995</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>0.86032070000000005</v>
       </c>
-      <c r="F9">
+      <c r="F10" s="5">
         <v>0.60135640000000001</v>
       </c>
-      <c r="G9">
+      <c r="G10" s="6">
         <v>0.16429659999999999</v>
       </c>
-      <c r="H9">
+      <c r="H10" s="5">
         <v>0.2168224</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11">
-        <v>0.55177549999999997</v>
-      </c>
-      <c r="D11">
-        <v>0.89696149999999997</v>
-      </c>
-      <c r="E11">
-        <v>0.80980580000000002</v>
-      </c>
-      <c r="F11">
-        <v>0.85216709999999996</v>
-      </c>
-      <c r="G11">
-        <v>0.1939478</v>
-      </c>
-      <c r="H11">
-        <v>0.3114807</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>0.55177549999999997</v>
+      </c>
+      <c r="D12">
+        <v>0.89696149999999997</v>
+      </c>
+      <c r="E12">
+        <v>0.80980580000000002</v>
+      </c>
+      <c r="F12">
+        <v>0.85216709999999996</v>
+      </c>
+      <c r="G12">
+        <v>0.1939478</v>
+      </c>
+      <c r="H12">
+        <v>0.3114807</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>0.46532849999999998</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>0.8914533</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>0.76927060000000003</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>1.0047010000000001</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>0.18987780000000001</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <v>0.37955739999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14">
-        <v>0.63612449999999998</v>
-      </c>
-      <c r="D14">
-        <v>0.91060090000000005</v>
-      </c>
-      <c r="E14">
-        <v>0.87320390000000003</v>
-      </c>
-      <c r="F14">
-        <v>0.72775100000000004</v>
-      </c>
-      <c r="G14">
-        <v>0.17879809999999999</v>
-      </c>
-      <c r="H14">
-        <v>0.25359229999999999</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>0.63612449999999998</v>
+      </c>
+      <c r="D15">
+        <v>0.91060090000000005</v>
+      </c>
+      <c r="E15">
+        <v>0.87320390000000003</v>
+      </c>
+      <c r="F15">
+        <v>0.72775100000000004</v>
+      </c>
+      <c r="G15">
+        <v>0.17879809999999999</v>
+      </c>
+      <c r="H15">
+        <v>0.25359229999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
         <v>19</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>0.56517209999999996</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>0.90010820000000002</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>0.8535954</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>0.86965590000000004</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <v>0.19978360000000001</v>
       </c>
-      <c r="H15">
+      <c r="H16">
         <v>0.29280909999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17">
-        <v>0.67365189999999997</v>
-      </c>
-      <c r="D17">
-        <v>0.91181630000000002</v>
-      </c>
-      <c r="E17">
-        <v>0.89027259999999997</v>
-      </c>
-      <c r="F17">
-        <v>0.65269619999999995</v>
-      </c>
-      <c r="G17">
-        <v>0.1763673</v>
-      </c>
-      <c r="H17">
-        <v>0.21945480000000001</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>0.67365189999999997</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0.91181630000000002</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0.89027259999999997</v>
+      </c>
+      <c r="F18">
+        <v>0.65269619999999995</v>
+      </c>
+      <c r="G18">
+        <v>0.1763673</v>
+      </c>
+      <c r="H18">
+        <v>0.21945480000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
         <v>19</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>0.58759119999999998</v>
       </c>
-      <c r="D18">
+      <c r="D19" s="7">
         <v>0.90804180000000001</v>
       </c>
-      <c r="E18">
+      <c r="E19" s="7">
         <v>0.86445939999999999</v>
       </c>
-      <c r="F18">
+      <c r="F19">
         <v>0.82481749999999998</v>
       </c>
-      <c r="G18">
+      <c r="G19">
         <v>0.1839163</v>
       </c>
-      <c r="H18">
+      <c r="H19">
         <v>0.27108120000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20">
-        <v>0.45567730000000001</v>
-      </c>
-      <c r="D20">
-        <v>0.93828489999999998</v>
-      </c>
-      <c r="E20">
-        <v>0.549508</v>
-      </c>
-      <c r="F20">
-        <v>1.0886453</v>
-      </c>
-      <c r="G20">
-        <v>0.1234301</v>
-      </c>
-      <c r="H20">
-        <v>0.90098409999999995</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21">
+        <v>0.45567730000000001</v>
+      </c>
+      <c r="D21">
+        <v>0.93828489999999998</v>
+      </c>
+      <c r="E21">
+        <v>0.549508</v>
+      </c>
+      <c r="F21">
+        <v>1.0886453</v>
+      </c>
+      <c r="G21">
+        <v>0.1234301</v>
+      </c>
+      <c r="H21">
+        <v>0.90098409999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
         <v>19</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>0.3967675</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>0.93689149999999999</v>
       </c>
-      <c r="E21">
+      <c r="E22">
         <v>0.47542679999999998</v>
       </c>
-      <c r="F21">
+      <c r="F22">
         <v>1.2064651</v>
       </c>
-      <c r="G21">
+      <c r="G22">
         <v>0.1262171</v>
       </c>
-      <c r="H21">
+      <c r="H22">
         <v>1.0491463999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23">
-        <v>0.68750549999999999</v>
-      </c>
-      <c r="D23">
-        <v>0.93828489999999998</v>
-      </c>
-      <c r="E23">
-        <v>0.88382830000000001</v>
-      </c>
-      <c r="F23">
-        <v>0.62498900000000002</v>
-      </c>
-      <c r="G23">
-        <v>0.1234301</v>
-      </c>
-      <c r="H23">
-        <v>0.23234350000000001</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -6509,28 +6568,58 @@
         <v>39</v>
       </c>
       <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24">
+        <v>0.68750549999999999</v>
+      </c>
+      <c r="D24">
+        <v>0.93828489999999998</v>
+      </c>
+      <c r="E24">
+        <v>0.88382830000000001</v>
+      </c>
+      <c r="F24">
+        <v>0.62498900000000002</v>
+      </c>
+      <c r="G24">
+        <v>0.1234301</v>
+      </c>
+      <c r="H24">
+        <v>0.23234350000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
         <v>19</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>0.60114699999999999</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <v>0.93689149999999999</v>
       </c>
-      <c r="E24">
+      <c r="E25">
         <v>0.8564408</v>
       </c>
-      <c r="F24">
+      <c r="F25">
         <v>0.79770589999999997</v>
       </c>
-      <c r="G24">
+      <c r="G25">
         <v>0.1262171</v>
       </c>
-      <c r="H24">
+      <c r="H25">
         <v>0.2871185</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6596,8 +6685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6614,7 +6703,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s">
         <v>28</v>
@@ -6626,18 +6715,18 @@
         <v>30</v>
       </c>
       <c r="G1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -6699,7 +6788,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
@@ -6746,7 +6835,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -6793,7 +6882,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
@@ -6849,7 +6938,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
@@ -6905,7 +6994,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
@@ -6952,7 +7041,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
@@ -7008,7 +7097,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
@@ -7064,7 +7153,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
@@ -7111,7 +7200,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
@@ -7158,7 +7247,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
@@ -7205,18 +7294,18 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
@@ -7278,7 +7367,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
@@ -7325,7 +7414,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
@@ -7372,7 +7461,7 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
@@ -7419,7 +7508,7 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -7466,7 +7555,7 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -7513,7 +7602,7 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -7560,7 +7649,7 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -7607,7 +7696,7 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -7654,7 +7743,7 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
         <v>19</v>
@@ -7701,7 +7790,7 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
         <v>19</v>
@@ -7750,4 +7839,32 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/11.07.2013 Meeting/Results.xlsx
+++ b/doc/11.07.2013 Meeting/Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ROC" sheetId="1" r:id="rId1"/>
@@ -952,11 +952,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="147281024"/>
-        <c:axId val="147282560"/>
+        <c:axId val="95712768"/>
+        <c:axId val="95714304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="147281024"/>
+        <c:axId val="95712768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -966,7 +966,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147282560"/>
+        <c:crossAx val="95714304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -974,7 +974,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="147282560"/>
+        <c:axId val="95714304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.4"/>
@@ -986,7 +986,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147281024"/>
+        <c:crossAx val="95712768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2241,11 +2241,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="147360384"/>
-        <c:axId val="147378560"/>
+        <c:axId val="95478912"/>
+        <c:axId val="95480448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="147360384"/>
+        <c:axId val="95478912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2255,7 +2255,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147378560"/>
+        <c:crossAx val="95480448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2263,7 +2263,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="147378560"/>
+        <c:axId val="95480448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.8"/>
@@ -2275,7 +2275,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147360384"/>
+        <c:crossAx val="95478912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2354,7 +2354,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Requested</a:t>
+              <a:t>Method</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2370,7 +2370,7 @@
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="16"/>
-          <c:order val="16"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Topline!$A$2</c:f>
@@ -2480,7 +2480,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="17"/>
-          <c:order val="17"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Topline!$A$14</c:f>
@@ -2549,7 +2549,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="18"/>
-          <c:order val="18"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Topline!$G$1</c:f>
@@ -2617,7 +2617,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="19"/>
-          <c:order val="19"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>Topline!$G$13</c:f>
@@ -2686,7 +2686,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="20"/>
-          <c:order val="20"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
               <c:f>Topline!$N$1</c:f>
@@ -2754,7 +2754,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="21"/>
-          <c:order val="21"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
               <c:f>Topline!$N$13</c:f>
@@ -2823,7 +2823,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="22"/>
-          <c:order val="22"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
               <c:f>Topline!$R$1</c:f>
@@ -2891,7 +2891,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="23"/>
-          <c:order val="23"/>
+          <c:order val="8"/>
           <c:tx>
             <c:strRef>
               <c:f>Topline!$R$13</c:f>
@@ -2959,529 +2959,8 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Topline!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2waymodel_topline _train</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Topline!$C$2:$C$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Topline!$E$2:$E$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.93828489999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.94746790000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.94881839999999995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.95003380000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.95030380000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.95003380000000004</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.95016880000000004</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.95138420000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.9520594</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.9520594</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.9520594</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Topline!$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2waymodel_topline _dev</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Topline!$E$14:$E$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.93689149999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.94734940000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.94951319999999995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.94987379999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.94951319999999995</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.95023440000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.95059499999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.94843129999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.94951319999999995</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.94951319999999995</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.94951319999999995</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Topline!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>baseline_train </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="92D050"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Topline!$H$2:$H$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.90938560000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.90938560000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.90938560000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.90938560000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.90938560000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.90938560000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.90938560000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.90938560000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.90938560000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.90938560000000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.90938560000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="11"/>
-          <c:order val="11"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Topline!$G$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>baseline_dev</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="92D050"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Topline!$H$14:$H$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.90299309999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.90299309999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.90299309999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.90299309999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.90299309999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.90299309999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.90299309999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.90299309999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.90299309999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.90299309999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.90299309999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="12"/>
-          <c:order val="12"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Topline!$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>baseline_focus_train</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="002060"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Topline!$O$2:$O$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.90573939999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.90573939999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.90573939999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.90573939999999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.90573939999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.90573939999999997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.90573939999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.90573939999999997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.90573939999999997</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.90573939999999997</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.90573939999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="13"/>
-          <c:order val="13"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Topline!$N$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>baseline_focus_dev</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="002060"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Topline!$O$14:$O$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.89361699999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.89361699999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.89361699999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.89361699999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.89361699999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.89361699999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.89361699999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.89361699999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.89361699999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.89361699999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.89361699999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="14"/>
-          <c:order val="14"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Topline!$R$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HWUbaseline_train</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Topline!$S$2:$S$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.91654290000000005</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.91654290000000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.91654290000000005</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.91654290000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.91654290000000005</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.91654290000000005</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.91654290000000005</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.91654290000000005</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.91654290000000005</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.91654290000000005</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.91654290000000005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
           <c:idx val="15"/>
-          <c:order val="15"/>
+          <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>Topline!$R$13</c:f>
@@ -3548,600 +3027,6 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Topline!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2waymodel_topline _train</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:bubble3D val="0"/>
-          </c:dPt>
-          <c:cat>
-            <c:numRef>
-              <c:f>Topline!$C$2:$C$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Topline!$E$2:$E$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.93828489999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.94746790000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.94881839999999995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.95003380000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.95030380000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.95003380000000004</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.95016880000000004</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.95138420000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.9520594</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.9520594</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.9520594</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Topline!$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2waymodel_topline _dev</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Topline!$E$14:$E$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.93689149999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.94734940000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.94951319999999995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.94987379999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.94951319999999995</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.95023440000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.95059499999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.94843129999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.94951319999999995</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.94951319999999995</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.94951319999999995</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Topline!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>baseline_train </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="92D050"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Topline!$H$2:$H$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.90938560000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.90938560000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.90938560000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.90938560000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.90938560000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.90938560000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.90938560000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.90938560000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.90938560000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.90938560000000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.90938560000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Topline!$G$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>baseline_dev</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="92D050"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Topline!$H$14:$H$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.90299309999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.90299309999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.90299309999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.90299309999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.90299309999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.90299309999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.90299309999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.90299309999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.90299309999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.90299309999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.90299309999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Topline!$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>baseline_focus_train</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="002060"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Topline!$O$2:$O$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.90573939999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.90573939999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.90573939999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.90573939999999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.90573939999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.90573939999999997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.90573939999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.90573939999999997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.90573939999999997</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.90573939999999997</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.90573939999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Topline!$N$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>baseline_focus_dev</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="002060"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Topline!$O$14:$O$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.89361699999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.89361699999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.89361699999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.89361699999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.89361699999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.89361699999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.89361699999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.89361699999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.89361699999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.89361699999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.89361699999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Topline!$R$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HWUbaseline_train</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Topline!$S$2:$S$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.91654290000000005</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.91654290000000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.91654290000000005</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.91654290000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.91654290000000005</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.91654290000000005</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.91654290000000005</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.91654290000000005</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.91654290000000005</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.91654290000000005</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.91654290000000005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Topline!$R$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HWUbaseline_dev</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Topline!$T$14:$T$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.86032070000000005</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.86032070000000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.86032070000000005</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.86032070000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.86032070000000005</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.86032070000000005</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.86032070000000005</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.86032070000000005</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.86032070000000005</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.86032070000000005</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.86032070000000005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -4152,11 +3037,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="147147392"/>
-        <c:axId val="147165568"/>
+        <c:axId val="95658368"/>
+        <c:axId val="95659904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="147147392"/>
+        <c:axId val="95658368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4166,7 +3051,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147165568"/>
+        <c:crossAx val="95659904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4174,7 +3059,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="147165568"/>
+        <c:axId val="95659904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.8"/>
@@ -4186,7 +3071,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147147392"/>
+        <c:crossAx val="95658368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4195,66 +3080,6 @@
       <c:legendPos val="r"/>
       <c:legendEntry>
         <c:idx val="8"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="9"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="10"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="11"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="12"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="13"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="14"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="15"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="16"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="17"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="18"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="19"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="20"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="21"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="22"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="23"/>
         <c:delete val="1"/>
       </c:legendEntry>
       <c:layout/>
@@ -4306,16 +3131,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>61913</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4338,16 +3163,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>552449</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6151,7 +4976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -6685,8 +5510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/doc/11.07.2013 Meeting/Results.xlsx
+++ b/doc/11.07.2013 Meeting/Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ROC" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="63">
   <si>
     <t xml:space="preserve">method </t>
   </si>
@@ -207,6 +207,9 @@
   <si>
     <t>L2</t>
   </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
 </sst>
 </file>
 
@@ -952,11 +955,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="95712768"/>
-        <c:axId val="95714304"/>
+        <c:axId val="101193984"/>
+        <c:axId val="101203968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95712768"/>
+        <c:axId val="101193984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -966,7 +969,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95714304"/>
+        <c:crossAx val="101203968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -974,7 +977,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95714304"/>
+        <c:axId val="101203968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.4"/>
@@ -986,7 +989,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95712768"/>
+        <c:crossAx val="101193984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2241,11 +2244,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="95478912"/>
-        <c:axId val="95480448"/>
+        <c:axId val="101269504"/>
+        <c:axId val="101271040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95478912"/>
+        <c:axId val="101269504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2255,7 +2258,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95480448"/>
+        <c:crossAx val="101271040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2263,7 +2266,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95480448"/>
+        <c:axId val="101271040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.8"/>
@@ -2275,7 +2278,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95478912"/>
+        <c:crossAx val="101269504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3037,11 +3040,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="95658368"/>
-        <c:axId val="95659904"/>
+        <c:axId val="101313536"/>
+        <c:axId val="101327616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95658368"/>
+        <c:axId val="101313536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3051,7 +3054,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95659904"/>
+        <c:crossAx val="101327616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3059,7 +3062,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95659904"/>
+        <c:axId val="101327616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.8"/>
@@ -3071,7 +3074,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95658368"/>
+        <c:crossAx val="101313536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5453,8 +5456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5467,7 +5470,7 @@
         <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="D1" t="s">
         <v>23</v>
@@ -5510,7 +5513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>

--- a/doc/11.07.2013 Meeting/Results.xlsx
+++ b/doc/11.07.2013 Meeting/Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ROC" sheetId="1" r:id="rId1"/>
@@ -283,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -291,13 +291,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -342,7 +341,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -955,11 +953,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101193984"/>
-        <c:axId val="101203968"/>
+        <c:axId val="159259648"/>
+        <c:axId val="159273728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101193984"/>
+        <c:axId val="159259648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -969,7 +967,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101203968"/>
+        <c:crossAx val="159273728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -977,7 +975,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101203968"/>
+        <c:axId val="159273728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.4"/>
@@ -989,14 +987,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101193984"/>
+        <c:crossAx val="159259648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1041,7 +1038,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2244,11 +2240,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101269504"/>
-        <c:axId val="101271040"/>
+        <c:axId val="168391424"/>
+        <c:axId val="168392960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101269504"/>
+        <c:axId val="168391424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2258,7 +2254,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101271040"/>
+        <c:crossAx val="168392960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2266,7 +2262,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101271040"/>
+        <c:axId val="168392960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.8"/>
@@ -2278,7 +2274,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101269504"/>
+        <c:crossAx val="168391424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2317,7 +2313,6 @@
         <c:idx val="15"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2362,7 +2357,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3040,11 +3034,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101313536"/>
-        <c:axId val="101327616"/>
+        <c:axId val="168505344"/>
+        <c:axId val="168506880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101313536"/>
+        <c:axId val="168505344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3054,7 +3048,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101327616"/>
+        <c:crossAx val="168506880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3062,7 +3056,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101327616"/>
+        <c:axId val="168506880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.8"/>
@@ -3074,7 +3068,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101313536"/>
+        <c:crossAx val="168505344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3085,7 +3079,6 @@
         <c:idx val="8"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4979,467 +4972,469 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="3" max="8" width="11" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="8" width="11" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>0.58228849999999999</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>0.90938560000000002</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>0.8360185</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>0.81013109999999999</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>0.1504665</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>0.28890270000000001</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>0.50104280000000001</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>0.90299309999999999</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>0.81298499999999996</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>0.96085379999999998</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="3">
         <v>0.15462870000000001</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>0.33335209999999998</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>0.7153003</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>0.90573939999999997</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>0.85805100000000001</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>0.47137980000000002</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>0.15670970000000001</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>0.2208987</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>0.61209590000000003</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>0.89361699999999999</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>0.83031560000000004</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>0.63186900000000001</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>0.1743412</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>0.26579750000000002</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="6">
         <v>0.73195969999999999</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="6">
         <v>0.91654290000000005</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="6">
         <v>0.88800840000000003</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="6">
         <v>0.45122269999999998</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="6">
         <v>0.14023430000000001</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="6">
         <v>0.16506129999999999</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="6">
         <v>0.62304479999999995</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="6">
         <v>0.90263249999999995</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="6">
         <v>0.86032070000000005</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="6">
         <v>0.60135640000000001</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="7">
         <v>0.16429659999999999</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="6">
         <v>0.2168224</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>0.55177549999999997</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>0.89696149999999997</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>0.80980580000000002</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>0.85216709999999996</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>0.1939478</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="1">
         <v>0.3114807</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>0.46532849999999998</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>0.8914533</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>0.76927060000000003</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>1.0047010000000001</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <v>0.18987780000000001</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="1">
         <v>0.37955739999999999</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>0.63612449999999998</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>0.91060090000000005</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>0.87320390000000003</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>0.72775100000000004</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <v>0.17879809999999999</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="1">
         <v>0.25359229999999999</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>0.56517209999999996</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>0.90010820000000002</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>0.8535954</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>0.86965590000000004</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="1">
         <v>0.19978360000000001</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="1">
         <v>0.29280909999999999</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>0.67365189999999997</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="8">
         <v>0.91181630000000002</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="8">
         <v>0.89027259999999997</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>0.65269619999999995</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
         <v>0.1763673</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="1">
         <v>0.21945480000000001</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>0.58759119999999998</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="8">
         <v>0.90804180000000001</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="8">
         <v>0.86445939999999999</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <v>0.82481749999999998</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="1">
         <v>0.1839163</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="1">
         <v>0.27108120000000002</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>0.45567730000000001</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>0.93828489999999998</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <v>0.549508</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <v>1.0886453</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="1">
         <v>0.1234301</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="1">
         <v>0.90098409999999995</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>0.3967675</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>0.93689149999999999</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
         <v>0.47542679999999998</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="1">
         <v>1.2064651</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="1">
         <v>0.1262171</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="1">
         <v>1.0491463999999999</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>0.68750549999999999</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <v>0.93828489999999998</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
         <v>0.88382830000000001</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="1">
         <v>0.62498900000000002</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="1">
         <v>0.1234301</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="1">
         <v>0.23234350000000001</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>0.60114699999999999</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>0.93689149999999999</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1">
         <v>0.8564408</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="1">
         <v>0.79770589999999997</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="1">
         <v>0.1262171</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="1">
         <v>0.2871185</v>
       </c>
     </row>
@@ -5456,7 +5451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
